--- a/2020_Fall/Metacontent/CSC201_Schedule_Fall2020.xlsx
+++ b/2020_Fall/Metacontent/CSC201_Schedule_Fall2020.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drew.howell\Desktop\School\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drewhowell/Desktop/CSC-201/2020_Fall/Metacontent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B5C528-6F81-498C-B39E-2B3B54158E85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C7479702-EC4E-43F4-869C-5C9B5EE84661}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="Topics" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -189,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,7 +260,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -265,44 +270,44 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -310,68 +315,68 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -379,77 +384,77 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -457,65 +462,65 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -523,7 +528,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -531,7 +536,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -540,25 +545,25 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,38 +603,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,6 +643,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,29 +980,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F862C85E-3644-460F-B009-D74F7C2005BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="40.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="35.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.1640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="40.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="35.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C1" s="21" t="s">
         <v>37</v>
       </c>
@@ -1016,12 +1021,12 @@
       <c r="H1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="43"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C2" s="24">
         <v>44057</v>
       </c>
@@ -1037,20 +1042,20 @@
         <v>0</v>
       </c>
       <c r="G2" s="13"/>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="45"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="37"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <f>C2+B3</f>
         <v>44060</v>
       </c>
@@ -1065,13 +1070,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="16"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="46" t="s">
+      <c r="H3" s="56"/>
+      <c r="I3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="45"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="37"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>2</v>
@@ -1091,18 +1096,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="46" t="s">
+      <c r="H4" s="56"/>
+      <c r="I4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="45"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="37"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="26">
         <f t="shared" ref="C5:C44" si="1">C4+B5</f>
         <v>44064</v>
       </c>
@@ -1117,20 +1122,20 @@
         <v>0</v>
       </c>
       <c r="G5" s="15"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="47" t="s">
+      <c r="H5" s="56"/>
+      <c r="I5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <f t="shared" si="1"/>
         <v>44067</v>
       </c>
@@ -1145,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="16"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50" t="s">
+      <c r="H6" s="56"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>2</v>
@@ -1171,20 +1176,20 @@
         <v>0</v>
       </c>
       <c r="G7" s="13"/>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="52" t="s">
+      <c r="I7" s="43"/>
+      <c r="J7" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="26">
         <f t="shared" si="1"/>
         <v>44071</v>
       </c>
@@ -1199,18 +1204,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52" t="s">
+      <c r="H8" s="57"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <f t="shared" si="1"/>
         <v>44074</v>
       </c>
@@ -1225,13 +1230,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="16"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="52" t="s">
+      <c r="H9" s="57"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>2</v>
@@ -1251,18 +1256,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="53" t="s">
+      <c r="H10" s="57"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="45" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="26">
         <f t="shared" si="1"/>
         <v>44078</v>
       </c>
@@ -1277,18 +1282,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="15"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52" t="s">
+      <c r="H11" s="57"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>3</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="27">
         <f t="shared" si="1"/>
         <v>44081</v>
       </c>
@@ -1305,14 +1310,14 @@
       <c r="G12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="53" t="s">
+      <c r="H12" s="57"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="45" t="s">
         <v>28</v>
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>2</v>
@@ -1332,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="53" t="s">
+      <c r="H13" s="57"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="45" t="s">
         <v>26</v>
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="26">
         <f t="shared" si="1"/>
         <v>44085</v>
       </c>
@@ -1359,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="G14" s="15"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52" t="s">
+      <c r="H14" s="57"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44" t="s">
         <v>27</v>
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>3</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <f t="shared" si="1"/>
         <v>44088</v>
       </c>
@@ -1386,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="G15" s="16"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="54" t="s">
+      <c r="H15" s="57"/>
+      <c r="I15" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="47" t="s">
         <v>25</v>
       </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>2</v>
@@ -1415,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="G16" s="13"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="44" t="s">
+      <c r="H16" s="57"/>
+      <c r="I16" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="45"/>
+      <c r="J16" s="37"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>2</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="26">
         <f t="shared" si="1"/>
         <v>44092</v>
       </c>
@@ -1442,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="G17" s="15"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="46" t="s">
+      <c r="H17" s="57"/>
+      <c r="I17" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="37"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>3</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <f t="shared" si="1"/>
         <v>44095</v>
       </c>
@@ -1469,14 +1474,14 @@
         <v>0</v>
       </c>
       <c r="G18" s="16"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="56" t="s">
+      <c r="H18" s="57"/>
+      <c r="I18" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="45"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2">
         <v>2</v>
@@ -1496,19 +1501,19 @@
         <v>0</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="46" t="s">
+      <c r="H19" s="57"/>
+      <c r="I19" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="45"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3">
         <v>2</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="26">
         <f t="shared" si="1"/>
         <v>44099</v>
       </c>
@@ -1523,23 +1528,23 @@
         <v>0</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="47" t="s">
+      <c r="I20" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="57" t="s">
+      <c r="J20" s="49" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>3</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="25">
         <f t="shared" si="1"/>
         <v>44102</v>
       </c>
@@ -1556,14 +1561,14 @@
       <c r="G21" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="50" t="s">
+      <c r="H21" s="61"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="42" t="s">
         <v>32</v>
       </c>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2">
         <v>2</v>
@@ -1583,19 +1588,19 @@
         <v>0</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52" t="s">
+      <c r="H22" s="61"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44" t="s">
         <v>33</v>
       </c>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3">
         <v>2</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="26">
         <f t="shared" si="1"/>
         <v>44106</v>
       </c>
@@ -1610,20 +1615,20 @@
         <v>0</v>
       </c>
       <c r="G23" s="15"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="58" t="s">
+      <c r="H23" s="61"/>
+      <c r="I23" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="59" t="s">
+      <c r="J23" s="51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>3</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="25">
         <f t="shared" si="1"/>
         <v>44109</v>
       </c>
@@ -1638,13 +1643,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="16"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="60" t="s">
+      <c r="H24" s="61"/>
+      <c r="I24" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="45"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="37"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
         <v>2</v>
@@ -1664,18 +1669,18 @@
         <v>0</v>
       </c>
       <c r="G25" s="13"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="46" t="s">
+      <c r="H25" s="61"/>
+      <c r="I25" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="45"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J25" s="37"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3">
         <v>2</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="26">
         <f t="shared" si="1"/>
         <v>44113</v>
       </c>
@@ -1690,18 +1695,18 @@
         <v>0</v>
       </c>
       <c r="G26" s="15"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="56" t="s">
+      <c r="H26" s="61"/>
+      <c r="I26" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="45"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J26" s="37"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5">
         <v>3</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="27">
         <f t="shared" si="1"/>
         <v>44116</v>
       </c>
@@ -1718,13 +1723,13 @@
       <c r="G27" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="46" t="s">
+      <c r="H27" s="62"/>
+      <c r="I27" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="45"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J27" s="37"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2">
         <v>2</v>
@@ -1744,20 +1749,20 @@
         <v>0</v>
       </c>
       <c r="G28" s="13"/>
-      <c r="H28" s="34" t="s">
+      <c r="H28" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="46" t="s">
+      <c r="I28" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="45"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3">
         <v>2</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="26">
         <f t="shared" si="1"/>
         <v>44120</v>
       </c>
@@ -1774,18 +1779,18 @@
       <c r="G29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="56" t="s">
+      <c r="H29" s="58"/>
+      <c r="I29" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="45"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J29" s="37"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>3</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="25">
         <f t="shared" si="1"/>
         <v>44123</v>
       </c>
@@ -1800,13 +1805,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="16"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="46" t="s">
+      <c r="H30" s="58"/>
+      <c r="I30" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="45"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J30" s="37"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
         <v>2</v>
@@ -1826,18 +1831,18 @@
         <v>0</v>
       </c>
       <c r="G31" s="13"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="46" t="s">
+      <c r="H31" s="58"/>
+      <c r="I31" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="45"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="37"/>
+    </row>
+    <row r="32" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3">
         <v>2</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="26">
         <f t="shared" si="1"/>
         <v>44127</v>
       </c>
@@ -1852,20 +1857,20 @@
         <v>0</v>
       </c>
       <c r="G32" s="15"/>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="61" t="s">
+      <c r="I32" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="J32" s="62"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J32" s="54"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>3</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="25">
         <f t="shared" si="1"/>
         <v>44130</v>
       </c>
@@ -1880,9 +1885,9 @@
         <v>0</v>
       </c>
       <c r="G33" s="16"/>
-      <c r="H33" s="35"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="59"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2">
         <v>2</v>
@@ -1902,14 +1907,14 @@
         <v>0</v>
       </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="35"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="59"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3">
         <v>2</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="26">
         <f t="shared" si="1"/>
         <v>44134</v>
       </c>
@@ -1924,14 +1929,14 @@
         <v>0</v>
       </c>
       <c r="G35" s="15"/>
-      <c r="H35" s="35"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="59"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>3</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="25">
         <f t="shared" si="1"/>
         <v>44137</v>
       </c>
@@ -1946,9 +1951,9 @@
         <v>0</v>
       </c>
       <c r="G36" s="16"/>
-      <c r="H36" s="35"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="59"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2">
         <v>2</v>
@@ -1968,14 +1973,14 @@
         <v>0</v>
       </c>
       <c r="G37" s="13"/>
-      <c r="H37" s="35"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="59"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3">
         <v>2</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="26">
         <f t="shared" si="1"/>
         <v>44141</v>
       </c>
@@ -1990,14 +1995,14 @@
         <v>0</v>
       </c>
       <c r="G38" s="15"/>
-      <c r="H38" s="35"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="59"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>3</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="25">
         <f t="shared" si="1"/>
         <v>44144</v>
       </c>
@@ -2012,9 +2017,9 @@
         <v>0</v>
       </c>
       <c r="G39" s="16"/>
-      <c r="H39" s="35"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="59"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2">
         <v>2</v>
@@ -2034,14 +2039,14 @@
         <v>0</v>
       </c>
       <c r="G40" s="13"/>
-      <c r="H40" s="35"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="59"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3">
         <v>2</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="26">
         <f t="shared" si="1"/>
         <v>44148</v>
       </c>
@@ -2056,14 +2061,14 @@
         <v>0</v>
       </c>
       <c r="G41" s="15"/>
-      <c r="H41" s="35"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="59"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5">
         <v>3</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="27">
         <f t="shared" si="1"/>
         <v>44151</v>
       </c>
@@ -2080,14 +2085,14 @@
       <c r="G42" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="36"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="28"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="6">
         <v>2</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="29">
         <f t="shared" si="1"/>
         <v>44153</v>
       </c>
@@ -2104,31 +2109,31 @@
       <c r="G43" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="38"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="30"/>
+    </row>
+    <row r="44" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7">
         <v>2</v>
       </c>
-      <c r="C44" s="39">
+      <c r="C44" s="31">
         <f t="shared" si="1"/>
         <v>44155</v>
       </c>
-      <c r="D44" s="40" t="str">
+      <c r="D44" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E44" s="32">
         <v>14</v>
       </c>
-      <c r="F44" s="40" t="s">
+      <c r="F44" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G44" s="40" t="s">
+      <c r="G44" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="41"/>
+      <c r="H44" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2144,23 +2149,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E8E162-3348-4A85-8C28-9B24F01636BB}">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0">
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -2171,7 +2176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
@@ -2182,7 +2187,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
@@ -2193,7 +2198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
@@ -2204,7 +2209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>22</v>
       </c>
@@ -2215,7 +2220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="14" t="s">
         <v>7</v>
@@ -2224,42 +2229,42 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="13"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="13"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
@@ -2267,7 +2272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>32</v>
       </c>
@@ -2275,7 +2280,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>33</v>
       </c>
@@ -2283,7 +2288,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>34</v>
       </c>
@@ -2291,43 +2296,43 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
     </row>
